--- a/teaching/traditional_assets/database/data/malaysia/malaysia_coal_related_energy.xlsx
+++ b/teaching/traditional_assets/database/data/malaysia/malaysia_coal_related_energy.xlsx
@@ -590,26 +590,23 @@
           <t>Coal &amp; Related Energy</t>
         </is>
       </c>
-      <c r="D2">
-        <v>0.0178</v>
-      </c>
       <c r="G2">
-        <v>0.1094560669456067</v>
+        <v>-0.2866666666666667</v>
       </c>
       <c r="H2">
-        <v>0.09748953974895398</v>
+        <v>-0.3360544217687075</v>
       </c>
       <c r="I2">
-        <v>-0.05448310496871041</v>
+        <v>-0.507482993197279</v>
       </c>
       <c r="J2">
-        <v>-0.05448310496871041</v>
+        <v>-0.507482993197279</v>
       </c>
       <c r="K2">
-        <v>-2.38</v>
+        <v>-10</v>
       </c>
       <c r="L2">
-        <v>-0.09958158995815899</v>
+        <v>-0.6802721088435374</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +630,52 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.998</v>
+        <v>1.5</v>
       </c>
       <c r="V2">
-        <v>0.3441379310344828</v>
-      </c>
-      <c r="W2">
-        <v>-0.1259259259259259</v>
+        <v>0.1945525291828794</v>
       </c>
       <c r="X2">
-        <v>0.3593920976864073</v>
-      </c>
-      <c r="Y2">
-        <v>-0.4853180236123332</v>
-      </c>
-      <c r="Z2">
-        <v>0.7890202440301547</v>
-      </c>
-      <c r="AA2">
-        <v>-0.04298827277793242</v>
+        <v>0.1042853778812811</v>
       </c>
       <c r="AB2">
-        <v>0.09642907954915417</v>
-      </c>
-      <c r="AC2">
-        <v>-0.1394173523270866</v>
+        <v>0.06493669612265837</v>
       </c>
       <c r="AD2">
-        <v>11.7</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="AE2">
-        <v>0.440731043760893</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>12.14073104376089</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="AG2">
-        <v>11.14273104376089</v>
+        <v>6.640000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.8071902228979115</v>
+        <v>0.5135646687697161</v>
       </c>
       <c r="AI2">
-        <v>0.4123787220403879</v>
+        <v>0.5129174543163201</v>
       </c>
       <c r="AJ2">
-        <v>0.7934874640151672</v>
+        <v>0.4627177700348432</v>
       </c>
       <c r="AK2">
-        <v>0.3917602366178239</v>
+        <v>0.4620737647877523</v>
       </c>
       <c r="AL2">
-        <v>0.77</v>
+        <v>0.519</v>
       </c>
       <c r="AM2">
-        <v>0.77</v>
-      </c>
-      <c r="AN2">
-        <v>12.07430340557275</v>
+        <v>0.519</v>
       </c>
       <c r="AO2">
-        <v>-2.038961038961039</v>
-      </c>
-      <c r="AP2">
-        <v>11.49920644350969</v>
+        <v>-14.373795761079</v>
       </c>
       <c r="AQ2">
-        <v>-2.038961038961039</v>
+        <v>-14.373795761079</v>
       </c>
     </row>
     <row r="3">
@@ -718,26 +694,23 @@
           <t>Coal &amp; Related Energy</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.0178</v>
-      </c>
       <c r="G3">
-        <v>0.1094560669456067</v>
+        <v>-0.2866666666666667</v>
       </c>
       <c r="H3">
-        <v>0.09748953974895398</v>
+        <v>-0.3360544217687075</v>
       </c>
       <c r="I3">
-        <v>-0.05448310496871041</v>
+        <v>-0.507482993197279</v>
       </c>
       <c r="J3">
-        <v>-0.05448310496871041</v>
+        <v>-0.507482993197279</v>
       </c>
       <c r="K3">
-        <v>-2.38</v>
+        <v>-10</v>
       </c>
       <c r="L3">
-        <v>-0.09958158995815899</v>
+        <v>-0.6802721088435374</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +734,52 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.998</v>
+        <v>1.5</v>
       </c>
       <c r="V3">
-        <v>0.3441379310344828</v>
-      </c>
-      <c r="W3">
-        <v>-0.1259259259259259</v>
+        <v>0.1945525291828794</v>
       </c>
       <c r="X3">
-        <v>0.3593920976864073</v>
-      </c>
-      <c r="Y3">
-        <v>-0.4853180236123332</v>
-      </c>
-      <c r="Z3">
-        <v>0.7890202440301547</v>
-      </c>
-      <c r="AA3">
-        <v>-0.04298827277793242</v>
+        <v>0.1042853778812811</v>
       </c>
       <c r="AB3">
-        <v>0.09642907954915417</v>
-      </c>
-      <c r="AC3">
-        <v>-0.1394173523270866</v>
+        <v>0.06493669612265837</v>
       </c>
       <c r="AD3">
-        <v>11.7</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="AE3">
-        <v>0.440731043760893</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>12.14073104376089</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="AG3">
-        <v>11.14273104376089</v>
+        <v>6.640000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.8071902228979115</v>
+        <v>0.5135646687697161</v>
       </c>
       <c r="AI3">
-        <v>0.4123787220403879</v>
+        <v>0.5129174543163201</v>
       </c>
       <c r="AJ3">
-        <v>0.7934874640151672</v>
+        <v>0.4627177700348432</v>
       </c>
       <c r="AK3">
-        <v>0.3917602366178239</v>
+        <v>0.4620737647877523</v>
       </c>
       <c r="AL3">
-        <v>0.77</v>
+        <v>0.519</v>
       </c>
       <c r="AM3">
-        <v>0.77</v>
-      </c>
-      <c r="AN3">
-        <v>12.07430340557275</v>
+        <v>0.519</v>
       </c>
       <c r="AO3">
-        <v>-2.038961038961039</v>
-      </c>
-      <c r="AP3">
-        <v>11.49920644350969</v>
+        <v>-14.373795761079</v>
       </c>
       <c r="AQ3">
-        <v>-2.038961038961039</v>
+        <v>-14.373795761079</v>
       </c>
     </row>
   </sheetData>
